--- a/Doc/簡易画面資料.xlsx
+++ b/Doc/簡易画面資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\friends_dg\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05230EE2-9DD3-4AC4-BA22-D3FE1383B38E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8794E4FE-2584-466F-A624-4417FBB51B64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>タイトル画面</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>メニュー画面</t>
-  </si>
-  <si>
-    <t>ステージを選択してゲーム画面に遷移</t>
   </si>
   <si>
     <t>ステージ</t>
@@ -92,6 +89,49 @@
 画面暗転
 クリア表示
 </t>
+  </si>
+  <si>
+    <t>ステージを選択してゲーム画面に遷移。
+メニューで選択できるステージは、ステージ１をクリアするとステージ２が解放される。といった具合に進行する。
+特殊ステージ案：特定ステージで特定のスコアをたたき出すとエクストラステージが出現。</t>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>グアイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンボの定義よろ！</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -236,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,14 +310,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,13 +328,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,6 +739,193 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28370077-3922-4ABE-8AFC-4484E17D3C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="8743950"/>
+          <a:ext cx="2057400" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7E2419-403F-4AD2-A11F-0152BC87F13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295651" y="8077200"/>
+          <a:ext cx="1619250" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A1E353-BE8B-4B0F-A4E4-312F194A9C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="7715250"/>
+          <a:ext cx="0" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5107,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C21:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5117,14 +5350,14 @@
   </cols>
   <sheetData>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5138,36 +5371,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B855C5-48A7-45AC-B4FB-D90429BDA221}">
   <dimension ref="C11:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="11" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
@@ -5178,184 +5411,184 @@
       <c r="J13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="4"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="4"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="4"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="4"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="26" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
@@ -5366,39 +5599,39 @@
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="28" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C30" s="1"/>
@@ -5409,16 +5642,16 @@
       <c r="J30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>5</v>
+      <c r="K30" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C31" s="1"/>
@@ -5427,170 +5660,170 @@
         <v>2</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="4"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="4"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="15"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="4"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="4"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="15"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="14"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="4"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="15"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="14"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="4"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="15"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="15"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="14"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="4"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="15"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="14"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="4"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="15"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
     </row>
     <row r="43" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
@@ -5601,14 +5834,14 @@
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="17"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5623,118 +5856,122 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A88234A-A98A-4A73-AB65-AEB5489CFDD9}">
-  <dimension ref="C11:R60"/>
+  <dimension ref="C11:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
-        <v>7</v>
+    <row r="11" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3">
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3">
         <v>3</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3">
         <v>4</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="T16" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
@@ -5743,16 +5980,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
@@ -5761,16 +5998,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
@@ -5779,100 +6016,100 @@
         <v>7</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="4"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="4"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="26" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
@@ -5883,39 +6120,39 @@
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="28" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="11" t="s">
-        <v>15</v>
+      <c r="C29" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C30" s="1"/>
@@ -5924,18 +6161,18 @@
         <v>1</v>
       </c>
       <c r="J30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C31" s="1"/>
@@ -5944,170 +6181,170 @@
         <v>2</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="15"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="15"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="14"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="4"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="15"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="14"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="4"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="15"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="15"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="14"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="4"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="15"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="14"/>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="4"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="15"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
     </row>
     <row r="43" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
@@ -6118,223 +6355,223 @@
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="17"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="16"/>
     </row>
     <row r="45" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11" t="s">
-        <v>19</v>
+      <c r="C46" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="11" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="11" t="s">
+      <c r="J46" s="18"/>
+      <c r="K46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="19"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="18" t="s">
-        <v>20</v>
+      <c r="K47" s="20" t="s">
+        <v>19</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="15"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="14"/>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="3"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="15"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="14"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="3"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="15"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="14"/>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="15"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="14"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="3"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="15"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="14"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="15"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="14"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="3"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="15"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="14"/>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="4"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="15"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="14"/>
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C55" s="1"/>
       <c r="H55" s="2"/>
       <c r="I55" s="4"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="15"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14"/>
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C56" s="1"/>
       <c r="H56" s="2"/>
       <c r="I56" s="4"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="15"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="14"/>
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="4"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="15"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14"/>
     </row>
     <row r="58" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C58" s="1"/>
       <c r="H58" s="2"/>
       <c r="I58" s="4"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="15"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="14"/>
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="4"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="15"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="14"/>
     </row>
     <row r="60" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
@@ -6345,29 +6582,29 @@
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="17"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K47:R60"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K13:R26"/>
+    <mergeCell ref="K30:R43"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K47:R60"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="K13:R26"/>
-    <mergeCell ref="K30:R43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/簡易画面資料.xlsx
+++ b/Doc/簡易画面資料.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\friends_dg\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8794E4FE-2584-466F-A624-4417FBB51B64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28200" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>タイトル画面</t>
   </si>
@@ -39,6 +33,11 @@
     <t>メニュー画面</t>
   </si>
   <si>
+    <t>ステージを選択してゲーム画面に遷移。
+メニューで選択できるステージは、ステージ１をクリアするとステージ２が解放される。といった具合に進行する。
+特殊ステージ案：特定ステージで特定のスコアをたたき出すとエクストラステージが出現。</t>
+  </si>
+  <si>
     <t>ステージ</t>
   </si>
   <si>
@@ -48,7 +47,10 @@
     <t>ゲーム画面
 動かない大きい敵、よく動く小さい敵（仮）が出てくる
 プレイヤーは弾を打って敵を倒す
-UI配置がクソなので考え直したい</t>
+UI配置がクソなので考え直したい
+敵に攻撃がHITしたら１コンボ
+一定秒数経過でコンボ数リセット
+最大コンボ数による何らかの報酬をプレイヤーに与えたい</t>
   </si>
   <si>
     <t>HPゲージ</t>
@@ -58,6 +60,9 @@
   </si>
   <si>
     <t>スコア</t>
+  </si>
+  <si>
+    <t>コンボの定義よろ！</t>
   </si>
   <si>
     <t>コンボ</t>
@@ -90,55 +95,18 @@
 クリア表示
 </t>
   </si>
-  <si>
-    <t>ステージを選択してゲーム画面に遷移。
-メニューで選択できるステージは、ステージ１をクリアするとステージ２が解放される。といった具合に進行する。
-特殊ステージ案：特定ステージで特定のスコアをたたき出すとエクストラステージが出現。</t>
-    <rPh sb="25" eb="27">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>カイホウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>グアイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コンボの定義よろ！</t>
-    <rPh sb="4" eb="6">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,19 +118,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +282,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -270,15 +567,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -286,29 +831,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -316,55 +873,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -378,15 +944,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E69A9C-647E-490F-83CB-816071BD2454}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -441,15 +1001,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAD0F24-FFDF-4A59-BF80-5E2A1C69BB86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -509,15 +1063,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10FABAC-3EEB-49EB-BE37-082345664A95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="36" idx="0"/>
@@ -565,15 +1113,9 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FD5E1E-DB64-4EE6-A489-390673823CC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -621,20 +1163,14 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9543B6B4-68F4-4BF4-98D7-8F3CB6A26370}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3248026" y="5800725"/>
+          <a:off x="3248025" y="5800725"/>
           <a:ext cx="1619250" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -689,15 +1225,9 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B90070D-7920-4232-A53F-BFA061931B3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -752,15 +1282,9 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28370077-3922-4ABE-8AFC-4484E17D3C5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -815,20 +1339,14 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7E2419-403F-4AD2-A11F-0152BC87F13F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295651" y="8077200"/>
+          <a:off x="3295650" y="8077200"/>
           <a:ext cx="1619250" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -883,15 +1401,9 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A1E353-BE8B-4B0F-A4E4-312F194A9C4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -930,7 +1442,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -941,26 +1453,20 @@
     <xdr:ext cx="3565525" cy="2005965"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図形 4" descr="menu">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8DF26-A3E4-4542-989C-5C49BDA738DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="図形 4" descr="menu"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="3462655"/>
+          <a:off x="1609725" y="5224780"/>
           <a:ext cx="3565525" cy="2005965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -980,26 +1486,20 @@
     <xdr:ext cx="3783330" cy="2128520"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図形 5" descr="title">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EAC502-FC71-4083-95FE-97F948CB9FDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図形 5" descr="title"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="864235" y="442595"/>
+          <a:off x="1550035" y="2176145"/>
           <a:ext cx="3783330" cy="2128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1017,20 +1517,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキストボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E9E44A-03F2-495B-B400-52458B1CE6F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="テキストボックス 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="2019300"/>
+          <a:off x="7391400" y="3752850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,20 +1566,14 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキストボックス 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C05DF-AC8E-483C-A479-EF6A59A3238A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="テキストボックス 26"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="581025"/>
+          <a:off x="2466975" y="2314575"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1237,20 +1725,14 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキストボックス 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A069498D-174F-4DEC-9B1F-2E3526F8E416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="テキストボックス 27"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1917700" y="4298950"/>
+          <a:off x="2603500" y="6061075"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1404,26 +1886,20 @@
     <xdr:ext cx="3783330" cy="2128520"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図形 29" descr="title">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFBDC90-145C-4BF2-A928-44F3760984F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="図形 29" descr="title"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="864235" y="442595"/>
+          <a:off x="1550035" y="2176145"/>
           <a:ext cx="3783330" cy="2128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1441,20 +1917,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキストボックス 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F047687-5B59-4576-8BF3-D28F51E83099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="テキストボックス 30"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="2019300"/>
+          <a:off x="7391400" y="3752850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1594,20 +2064,14 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキストボックス 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4783A569-C176-4DDE-BE40-814FCB5FAB28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="テキストボックス 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="581025"/>
+          <a:off x="2466975" y="2314575"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1759,20 +2223,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキストボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226273B5-2DD9-47C9-BAB0-FC6423276FBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="テキストボックス 33"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="4933950"/>
+          <a:off x="7391400" y="6696075"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1912,20 +2370,14 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキストボックス 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77DEC4D-FDE1-41B3-8CC5-F8040804337A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="テキストボックス 34"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="3495675"/>
+          <a:off x="2466975" y="5257800"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2077,20 +2529,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41351407-3C92-4100-BFA3-C1B2A55120AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="テキストボックス 36"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="4933950"/>
+          <a:off x="7391400" y="6696075"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2230,20 +2676,14 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキストボックス 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603824B9-8FCE-49A6-9D96-C5F02E220282}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="テキストボックス 37"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="3495675"/>
+          <a:off x="2466975" y="5257800"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2391,7 +2831,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2402,26 +2842,20 @@
     <xdr:ext cx="3606165" cy="2029460"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図形 7" descr="game">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FE8F6A-A23C-43E9-BC50-0E841E3FC93F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="図形 7" descr="game"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1097915" y="6372225"/>
+          <a:off x="1783715" y="2266950"/>
           <a:ext cx="3606165" cy="2029460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2441,26 +2875,20 @@
     <xdr:ext cx="3693160" cy="2077720"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図形 8" descr="boss">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B044DAF3-B39B-4422-880D-67DB49B4BE4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図形 8" descr="boss"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="9241155"/>
+          <a:off x="1581150" y="5164455"/>
           <a:ext cx="3693160" cy="2077720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2480,26 +2908,20 @@
     <xdr:ext cx="3632835" cy="2043430"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図形 9" descr="clear">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0DA9C8-15B9-4A3F-A87B-0CA0346E7511}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="図形 9" descr="clear"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="972185" y="12167870"/>
+          <a:off x="1657985" y="8119745"/>
           <a:ext cx="3632835" cy="2043430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2517,20 +2939,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキストボックス 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCD0C4A-0F0B-489C-8037-F49EA8C0113C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="テキストボックス 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="7848600"/>
+          <a:off x="7391400" y="3743325"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2670,20 +3086,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキストボックス 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF74091-6FCE-4A51-A82E-C95267D0BAC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="テキストボックス 42"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="7848600"/>
+          <a:off x="7391400" y="3743325"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2823,20 +3233,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキストボックス 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310F4EA5-6C7D-40A1-B9A4-825EA5757628}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="テキストボックス 43"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="6305550"/>
+          <a:off x="2914650" y="2200275"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2988,20 +3392,14 @@
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキストボックス 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC27FB6-452C-48FE-8E4B-5DAA662F502E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="テキストボックス 44"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="854075" y="6226175"/>
+          <a:off x="1539875" y="2120900"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3153,20 +3551,14 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキストボックス 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12051EF-3AAB-4AA3-AF23-97C6BFADBE86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="テキストボックス 45"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="832485" y="6400800"/>
+          <a:off x="1518285" y="2295525"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3318,20 +3710,14 @@
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキストボックス 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2926C5AC-B1E8-4388-B436-901D71446BE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="テキストボックス 46"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="826135" y="6580505"/>
+          <a:off x="1511935" y="2475230"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3483,20 +3869,14 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキストボックス 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C526A756-A3FF-41CE-86B1-98D47C6BC765}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="テキストボックス 47"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838835" y="6793230"/>
+          <a:off x="1524635" y="2687955"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3648,20 +4028,14 @@
       <xdr:rowOff>52705</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ACBE8A-5DF1-40DC-9025-9D30413E2533}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="テキストボックス 48"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2794635" y="6396355"/>
+          <a:off x="3480435" y="2291080"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3813,20 +4187,14 @@
       <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキストボックス 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505163F6-010E-427F-8841-3B5B3462D6F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="テキストボックス 49"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2759710" y="7971155"/>
+          <a:off x="3445510" y="3865880"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3978,20 +4346,14 @@
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキストボックス 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DB9961-456F-42FB-8E51-7B6BC4608231}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="テキストボックス 50"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3902710" y="6790055"/>
+          <a:off x="4588510" y="2684780"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4143,20 +4505,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキストボックス 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E430BB6B-6D12-4251-B3D6-5318C99B7B0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="テキストボックス 53"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="10763250"/>
+          <a:off x="7391400" y="6686550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4296,20 +4652,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキストボックス 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30233418-98FC-40BD-9B90-7167C0FE7BA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="テキストボックス 55"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="10763250"/>
+          <a:off x="7391400" y="6686550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4449,20 +4799,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキストボックス 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595152A3-B938-43BC-A072-38BB5B725B52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="テキストボックス 56"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="9220200"/>
+          <a:off x="2914650" y="5143500"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4614,20 +4958,14 @@
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキストボックス 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FD0E56-54CB-4FAF-8E52-88804D27FBAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="テキストボックス 57"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2359660" y="9712325"/>
+          <a:off x="3045460" y="5635625"/>
           <a:ext cx="485140" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4779,20 +5117,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキストボックス 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA4CD3B-1497-48D9-A435-349571695D56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="テキストボックス 67"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="13677900"/>
+          <a:off x="7391400" y="9629775"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4932,20 +5264,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキストボックス 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABA143E-F086-409D-9C88-A9BBDD9AF36F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="テキストボックス 68"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="13677900"/>
+          <a:off x="7391400" y="9629775"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5337,1277 +5663,1280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C21:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+    <row r="21" spans="3:5">
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B855C5-48A7-45AC-B4FB-D90429BDA221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C11:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="11" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="17" t="s">
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25" spans="3:18">
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="3:18">
+      <c r="C13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="C21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="C22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="C25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" ht="14.25" spans="3:18">
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="28" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="17" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25" spans="3:18">
+      <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="17" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="21" t="s">
-        <v>20</v>
+      <c r="K30" s="16" t="s">
+        <v>5</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="4">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="C31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7">
         <v>2</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>5</v>
+      <c r="J31" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-    </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
-    </row>
-    <row r="43" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="C32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="C33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="C34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="3:18">
+      <c r="C35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="3:18">
+      <c r="C36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="3:18">
+      <c r="C37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="3:18">
+      <c r="C38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="3:18">
+      <c r="C39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="3:18">
+      <c r="C40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="3:18">
+      <c r="C41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="3:18">
+      <c r="C42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" ht="14.25" spans="3:18">
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="16"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K13:R26"/>
-    <mergeCell ref="K30:R43"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K13:R26"/>
+    <mergeCell ref="K30:R43"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A88234A-A98A-4A73-AB65-AEB5489CFDD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C11:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="11" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="17" t="s">
+    <row r="11" ht="14.25"/>
+    <row r="12" spans="3:18">
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="3:18">
+      <c r="C13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="3:20">
+      <c r="C16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7">
+        <v>4</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="8"/>
+      <c r="T16" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17" t="s">
-        <v>1</v>
+      <c r="J18" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="20" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7">
         <v>7</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3">
-        <v>2</v>
+      <c r="J19" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="T16" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3">
-        <v>7</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="C21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="C22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="C25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" ht="14.25" spans="3:18">
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="28" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="17" t="s">
-        <v>14</v>
+      <c r="H26" s="6"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25" spans="3:18">
+      <c r="C29" s="1" t="s">
+        <v>16</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="17" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>15</v>
+      <c r="J30" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>16</v>
+      <c r="K30" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="C31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7">
         <v>2</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>17</v>
+      <c r="J31" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-    </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
-    </row>
-    <row r="43" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="C32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="C33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="C34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="3:18">
+      <c r="C35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="3:18">
+      <c r="C36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="3:18">
+      <c r="C37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="3:18">
+      <c r="C38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="3:18">
+      <c r="C39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="3:18">
+      <c r="C40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="3:18">
+      <c r="C41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="3:18">
+      <c r="C42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" ht="14.25" spans="3:18">
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="16"/>
-    </row>
-    <row r="45" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="17" t="s">
-        <v>18</v>
+      <c r="H43" s="6"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="45" ht="14.25"/>
+    <row r="46" ht="14.25" spans="3:18">
+      <c r="C46" s="1" t="s">
+        <v>20</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="17" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="17" t="s">
+      <c r="J46" s="2"/>
+      <c r="K46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="20" t="s">
-        <v>19</v>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="3:18">
+      <c r="C47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="14"/>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="14"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C49" s="1"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="14"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="14"/>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C51" s="1"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="14"/>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="14"/>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C53" s="1"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="14"/>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="14"/>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="14"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="14"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C57" s="1"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="14"/>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C58" s="1"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="14"/>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C59" s="1"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="14"/>
-    </row>
-    <row r="60" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="3:18">
+      <c r="C48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="3:18">
+      <c r="C49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="3:18">
+      <c r="C50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="3:18">
+      <c r="C51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="3:18">
+      <c r="C52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="3:18">
+      <c r="C53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="3:18">
+      <c r="C54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="3:18">
+      <c r="C55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="3:18">
+      <c r="C56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="3:18">
+      <c r="C57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="3:18">
+      <c r="C58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="3:18">
+      <c r="C59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" ht="14.25" spans="3:18">
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="16"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K47:R60"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="K13:R26"/>
-    <mergeCell ref="K30:R43"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:R29"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K47:R60"/>
+    <mergeCell ref="K13:R26"/>
+    <mergeCell ref="K30:R43"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/簡易画面資料.xlsx
+++ b/Doc/簡易画面資料.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="1" r:id="rId1"/>
     <sheet name="タイトル画面" sheetId="2" r:id="rId2"/>
     <sheet name="ゲーム画面" sheetId="3" r:id="rId3"/>
+    <sheet name="プレイヤー" sheetId="4" r:id="rId4"/>
+    <sheet name="エネミー" sheetId="5" r:id="rId5"/>
+    <sheet name="アイテム" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>タイトル画面</t>
   </si>
@@ -44,13 +47,39 @@
     <t>ゲーム画面</t>
   </si>
   <si>
-    <t>ゲーム画面
+    <r>
+      <t xml:space="preserve">ゲーム画面
 動かない大きい敵、よく動く小さい敵（仮）が出てくる
 プレイヤーは弾を打って敵を倒す
-UI配置がクソなので考え直したい
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UI配置がクソなので考え直したい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 敵に攻撃がHITしたら１コンボ
 一定秒数経過でコンボ数リセット
-最大コンボ数による何らかの報酬をプレイヤーに与えたい</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大コンボ数による何らかの報酬をプレイヤーに与えたい</t>
+    </r>
   </si>
   <si>
     <t>HPゲージ</t>
@@ -95,6 +124,48 @@
 クリア表示
 </t>
   </si>
+  <si>
+    <t>プレイヤー。
+方向キーで上下左右に移動
+Zキーで弾発射
+アイテム取得で1way → 2way → 3wayに変化
+HPが無くなると死
+被弾か敵に衝突でダメージ</t>
+  </si>
+  <si>
+    <t>弾</t>
+  </si>
+  <si>
+    <t>エネミー</t>
+  </si>
+  <si>
+    <t>雑魚A
+・攻撃種別
+狙い撃ち
+・出現方法
+上、左、右から出てくる
+・移動タイプ
+①Uターンで画面外に移動
+②出現位置からまっすぐ進む</t>
+  </si>
+  <si>
+    <t>雑魚B
+・攻撃種別
+狙い撃ち
+渦巻形でばらまく
+円形でばらまく
+・出現方法
+ステージに座標固定で出てくる
+・移動タイプ
+動かない</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>敵撃破で出現する
+取得するとプレイヤーの弾が2way→3wayと増える</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +177,14 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,21 +201,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,61 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,29 +323,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,21 +345,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,7 +372,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,169 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +655,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,17 +703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,34 +723,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -670,154 +742,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,9 +961,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -858,16 +972,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5406,6 +5523,3406 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2543175"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキストボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2543175"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキストボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1518285" y="1095375"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキストボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1511935" y="1275080"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図形 12" descr="player"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1697355" y="1080135"/>
+          <a:ext cx="3382645" cy="1902460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキストボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152775" y="2276475"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキストボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3136900" y="1479550"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキストボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2543175"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2543175"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキストボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1518285" y="1095375"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキストボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1511935" y="1275080"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469265</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図形 9" descr="enemy1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1840865" y="1054100"/>
+          <a:ext cx="3293110" cy="1852295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図形 10" descr="enemy2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="4232910"/>
+          <a:ext cx="3293110" cy="1852295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキストボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5648325"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキストボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5648325"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキストボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1518285" y="4200525"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキストボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1511935" y="4380230"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキストボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5648325"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキストボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5648325"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキストボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5648325"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキストボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5648325"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキストボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2543175"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2543175"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキストボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1518285" y="1095375"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485140" cy="434975"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキストボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1511935" y="1275080"/>
+          <a:ext cx="485140" cy="434975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図形 6" descr="item1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1753235" y="1050925"/>
+          <a:ext cx="3213735" cy="1807845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -5667,7 +9184,7 @@
   <sheetPr/>
   <dimension ref="C21:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -5677,14 +9194,14 @@
   </cols>
   <sheetData>
     <row r="21" spans="3:5">
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5699,7 +9216,7 @@
   <sheetPr/>
   <dimension ref="C11:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -5707,469 +9224,469 @@
   <sheetData>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25" spans="3:18">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="17"/>
+      <c r="K12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="14"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="3:18">
-      <c r="C13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7">
+      <c r="C13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="22">
         <v>1</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="8"/>
+      <c r="C14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="3:18">
-      <c r="C15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
+      <c r="C15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
+      <c r="C16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
+      <c r="C17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
+      <c r="C18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
+      <c r="C19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
+      <c r="C20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
+      <c r="C21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="8"/>
+      <c r="C22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="8"/>
+      <c r="C23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
+      <c r="C24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
+      <c r="C25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="23"/>
     </row>
     <row r="26" ht="14.25" spans="3:18">
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="12"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="28" ht="14.25"/>
     <row r="29" ht="14.25" spans="3:18">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="14"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7">
+      <c r="C30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="22">
         <v>1</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="8"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="23"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="C31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7">
+      <c r="C31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="22">
         <v>2</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="8"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="23"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="8"/>
+      <c r="C32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="23"/>
     </row>
     <row r="33" spans="3:18">
-      <c r="C33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="8"/>
+      <c r="C33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" spans="3:18">
-      <c r="C34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8"/>
+      <c r="C34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="35" spans="3:18">
-      <c r="C35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8"/>
+      <c r="C35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="23"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="8"/>
+      <c r="C36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="23"/>
     </row>
     <row r="37" spans="3:18">
-      <c r="C37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="8"/>
+      <c r="C37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="23"/>
     </row>
     <row r="38" spans="3:18">
-      <c r="C38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8"/>
+      <c r="C38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="23"/>
     </row>
     <row r="39" spans="3:18">
-      <c r="C39" s="3"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8"/>
+      <c r="C39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="23"/>
     </row>
     <row r="40" spans="3:18">
-      <c r="C40" s="3"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="8"/>
+      <c r="C40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="23"/>
     </row>
     <row r="41" spans="3:18">
-      <c r="C41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="8"/>
+      <c r="C41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="23"/>
     </row>
     <row r="42" spans="3:18">
-      <c r="C42" s="3"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="8"/>
+      <c r="C42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="23"/>
     </row>
     <row r="43" ht="14.25" spans="3:18">
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6194,731 +9711,731 @@
   <sheetPr/>
   <dimension ref="C11:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="11" ht="14.25"/>
     <row r="12" spans="3:18">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="17"/>
+      <c r="K12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="14"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="3:18">
-      <c r="C13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7">
+      <c r="C13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="22">
         <v>1</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7">
+      <c r="C14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="22">
         <v>2</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="8"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="3:18">
-      <c r="C15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7">
+      <c r="C15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="22">
         <v>3</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="3:20">
-      <c r="C16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7">
+      <c r="C16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22">
         <v>4</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="T16" s="15" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="23"/>
+      <c r="T16" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7">
+      <c r="C17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="22">
         <v>5</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7">
+      <c r="C18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="22">
         <v>6</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7">
+      <c r="C19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="22">
         <v>7</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
+      <c r="C20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
+      <c r="C21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="8"/>
+      <c r="C22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="8"/>
+      <c r="C23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
+      <c r="C24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
+      <c r="C25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="23"/>
     </row>
     <row r="26" ht="14.25" spans="3:18">
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="12"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="28" ht="14.25"/>
     <row r="29" ht="14.25" spans="3:18">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="14"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7">
+      <c r="C30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="22">
         <v>1</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="8"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="23"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="C31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7">
+      <c r="C31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="22">
         <v>2</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="8"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="23"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="8"/>
+      <c r="C32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="23"/>
     </row>
     <row r="33" spans="3:18">
-      <c r="C33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="8"/>
+      <c r="C33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" spans="3:18">
-      <c r="C34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8"/>
+      <c r="C34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="35" spans="3:18">
-      <c r="C35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8"/>
+      <c r="C35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="23"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="8"/>
+      <c r="C36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="23"/>
     </row>
     <row r="37" spans="3:18">
-      <c r="C37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="8"/>
+      <c r="C37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="23"/>
     </row>
     <row r="38" spans="3:18">
-      <c r="C38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8"/>
+      <c r="C38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="23"/>
     </row>
     <row r="39" spans="3:18">
-      <c r="C39" s="3"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8"/>
+      <c r="C39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="23"/>
     </row>
     <row r="40" spans="3:18">
-      <c r="C40" s="3"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="8"/>
+      <c r="C40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="23"/>
     </row>
     <row r="41" spans="3:18">
-      <c r="C41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="8"/>
+      <c r="C41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="23"/>
     </row>
     <row r="42" spans="3:18">
-      <c r="C42" s="3"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="8"/>
+      <c r="C42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="23"/>
     </row>
     <row r="43" ht="14.25" spans="3:18">
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="45" ht="14.25"/>
     <row r="46" ht="14.25" spans="3:18">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="1" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1" t="s">
+      <c r="J46" s="17"/>
+      <c r="K46" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="14"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="3:18">
-      <c r="C47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9" t="s">
+      <c r="C47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="8"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="23"/>
     </row>
     <row r="48" spans="3:18">
-      <c r="C48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="8"/>
+      <c r="C48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="23"/>
     </row>
     <row r="49" spans="3:18">
-      <c r="C49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="8"/>
+      <c r="C49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="23"/>
     </row>
     <row r="50" spans="3:18">
-      <c r="C50" s="3"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="8"/>
+      <c r="C50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="23"/>
     </row>
     <row r="51" spans="3:18">
-      <c r="C51" s="3"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="8"/>
+      <c r="C51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="23"/>
     </row>
     <row r="52" spans="3:18">
-      <c r="C52" s="3"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="8"/>
+      <c r="C52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="23"/>
     </row>
     <row r="53" spans="3:18">
-      <c r="C53" s="3"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="8"/>
+      <c r="C53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="23"/>
     </row>
     <row r="54" spans="3:18">
-      <c r="C54" s="3"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="8"/>
+      <c r="C54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="23"/>
     </row>
     <row r="55" spans="3:18">
-      <c r="C55" s="3"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="8"/>
+      <c r="C55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="23"/>
     </row>
     <row r="56" spans="3:18">
-      <c r="C56" s="3"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="8"/>
+      <c r="C56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="23"/>
     </row>
     <row r="57" spans="3:18">
-      <c r="C57" s="3"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="8"/>
+      <c r="C57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="23"/>
     </row>
     <row r="58" spans="3:18">
-      <c r="C58" s="3"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="8"/>
+      <c r="C58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="23"/>
     </row>
     <row r="59" spans="3:18">
-      <c r="C59" s="3"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="8"/>
+      <c r="C59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="23"/>
     </row>
     <row r="60" ht="14.25" spans="3:18">
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="12"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6939,4 +10456,1200 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C5:R19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:18">
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:18">
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:18">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:18">
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:18">
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:18">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:18">
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:18">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:18">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:18">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:18">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:18">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:18">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K6:R19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C5:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:18">
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:18">
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:18">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:18">
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:18">
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:18">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:18">
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:18">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:18">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:18">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:18">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:18">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:18">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:18">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:18">
+      <c r="C25" s="4"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:18">
+      <c r="C26" s="4"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:18">
+      <c r="C27" s="4"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="3:18">
+      <c r="C28" s="4"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="3:18">
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="3:18">
+      <c r="C30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="3:18">
+      <c r="C31" s="4"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="3:18">
+      <c r="C32" s="4"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="3:18">
+      <c r="C33" s="4"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="3:18">
+      <c r="C34" s="4"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="3:18">
+      <c r="C35" s="4"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="3:18">
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K6:R19"/>
+    <mergeCell ref="K24:R37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C5:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:18">
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:18">
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:18">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:18">
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:18">
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:18">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:18">
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:18">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:18">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:18">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:18">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:18">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:18">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:18">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K6:R19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Doc/簡易画面資料.xlsx
+++ b/Doc/簡易画面資料.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\friends_dg\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20B6CB-6205-4640-8383-DB525AFBC666}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13050" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>タイトル画面</t>
   </si>
@@ -57,6 +63,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
       <t>UI配置がクソなので考え直したい</t>
@@ -65,6 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -76,6 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
       <t>最大コンボ数による何らかの報酬をプレイヤーに与えたい</t>
@@ -125,14 +134,6 @@
 </t>
   </si>
   <si>
-    <t>プレイヤー。
-方向キーで上下左右に移動
-Zキーで弾発射
-アイテム取得で1way → 2way → 3wayに変化
-HPが無くなると死
-被弾か敵に衝突でダメージ</t>
-  </si>
-  <si>
     <t>弾</t>
   </si>
   <si>
@@ -166,18 +167,41 @@
     <t>敵撃破で出現する
 取得するとプレイヤーの弾が2way→3wayと増える</t>
   </si>
+  <si>
+    <t>プレイヤー。
+方向キーで上下左右に移動
+Zキーで弾発射
+アイテム取得で1way → 2way → 3wayに変化
+HPが無くなると死
+被弾か敵に衝突でダメージ
+残機制。初期残機は3。
+死んでモショットのレベルは維持</t>
+    <rPh sb="80" eb="82">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,146 +225,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,10 +236,22 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,192 +260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -639,307 +359,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -960,29 +414,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -990,64 +429,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1061,9 +515,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1118,9 +578,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1180,9 +646,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="36" idx="0"/>
@@ -1230,9 +702,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -1280,9 +758,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1342,9 +826,15 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1399,9 +889,15 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1456,9 +952,15 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1518,9 +1020,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -1559,7 +1067,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1570,13 +1078,19 @@
     <xdr:ext cx="3565525" cy="2005965"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図形 4" descr="menu"/>
+        <xdr:cNvPr id="2" name="図形 4" descr="menu">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1603,13 +1117,19 @@
     <xdr:ext cx="3783330" cy="2128520"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図形 5" descr="title"/>
+        <xdr:cNvPr id="3" name="図形 5" descr="title">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1634,9 +1154,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキストボックス 11"/>
+        <xdr:cNvPr id="4" name="テキストボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1683,9 +1209,15 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキストボックス 26"/>
+        <xdr:cNvPr id="5" name="テキストボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1842,9 +1374,15 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキストボックス 27"/>
+        <xdr:cNvPr id="6" name="テキストボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2003,13 +1541,19 @@
     <xdr:ext cx="3783330" cy="2128520"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図形 29" descr="title"/>
+        <xdr:cNvPr id="7" name="図形 29" descr="title">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2034,9 +1578,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキストボックス 30"/>
+        <xdr:cNvPr id="8" name="テキストボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2181,9 +1731,15 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキストボックス 31"/>
+        <xdr:cNvPr id="9" name="テキストボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2340,9 +1896,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキストボックス 33"/>
+        <xdr:cNvPr id="10" name="テキストボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2487,9 +2049,15 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキストボックス 34"/>
+        <xdr:cNvPr id="11" name="テキストボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2646,9 +2214,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 36"/>
+        <xdr:cNvPr id="12" name="テキストボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2793,9 +2367,15 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキストボックス 37"/>
+        <xdr:cNvPr id="13" name="テキストボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2948,7 +2528,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2959,13 +2539,19 @@
     <xdr:ext cx="3606165" cy="2029460"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図形 7" descr="game"/>
+        <xdr:cNvPr id="2" name="図形 7" descr="game">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2992,13 +2578,19 @@
     <xdr:ext cx="3693160" cy="2077720"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図形 8" descr="boss"/>
+        <xdr:cNvPr id="3" name="図形 8" descr="boss">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3025,13 +2617,19 @@
     <xdr:ext cx="3632835" cy="2043430"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図形 9" descr="clear"/>
+        <xdr:cNvPr id="4" name="図形 9" descr="clear">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3056,9 +2654,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキストボックス 39"/>
+        <xdr:cNvPr id="5" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3203,9 +2807,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキストボックス 42"/>
+        <xdr:cNvPr id="6" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3350,9 +2960,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキストボックス 43"/>
+        <xdr:cNvPr id="7" name="テキストボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3509,9 +3125,15 @@
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキストボックス 44"/>
+        <xdr:cNvPr id="8" name="テキストボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3668,9 +3290,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキストボックス 45"/>
+        <xdr:cNvPr id="9" name="テキストボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3827,9 +3455,15 @@
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキストボックス 46"/>
+        <xdr:cNvPr id="10" name="テキストボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3986,9 +3620,15 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキストボックス 47"/>
+        <xdr:cNvPr id="11" name="テキストボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4145,9 +3785,15 @@
       <xdr:rowOff>52705</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 48"/>
+        <xdr:cNvPr id="12" name="テキストボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4304,9 +3950,15 @@
       <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキストボックス 49"/>
+        <xdr:cNvPr id="13" name="テキストボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4463,9 +4115,15 @@
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキストボックス 50"/>
+        <xdr:cNvPr id="14" name="テキストボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4622,9 +4280,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキストボックス 53"/>
+        <xdr:cNvPr id="15" name="テキストボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4769,9 +4433,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキストボックス 55"/>
+        <xdr:cNvPr id="16" name="テキストボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4916,9 +4586,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキストボックス 56"/>
+        <xdr:cNvPr id="17" name="テキストボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5075,9 +4751,15 @@
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキストボックス 57"/>
+        <xdr:cNvPr id="18" name="テキストボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5234,9 +4916,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキストボックス 67"/>
+        <xdr:cNvPr id="19" name="テキストボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5381,9 +5069,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキストボックス 68"/>
+        <xdr:cNvPr id="20" name="テキストボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5524,7 +5218,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -5533,9 +5227,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキストボックス 39"/>
+        <xdr:cNvPr id="3" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5680,9 +5380,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキストボックス 42"/>
+        <xdr:cNvPr id="4" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5827,9 +5533,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキストボックス 45"/>
+        <xdr:cNvPr id="7" name="テキストボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5972,9 +5684,15 @@
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキストボックス 46"/>
+        <xdr:cNvPr id="8" name="テキストボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6124,13 +5842,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図形 12" descr="player"/>
+        <xdr:cNvPr id="13" name="図形 12" descr="player">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6155,9 +5879,15 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキストボックス 43"/>
+        <xdr:cNvPr id="15" name="テキストボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6315,9 +6045,15 @@
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキストボックス 43"/>
+        <xdr:cNvPr id="17" name="テキストボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6450,7 +6186,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>②</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6460,7 +6195,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -6469,9 +6204,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキストボックス 39"/>
+        <xdr:cNvPr id="2" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6616,9 +6357,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキストボックス 42"/>
+        <xdr:cNvPr id="3" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6763,9 +6510,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキストボックス 45"/>
+        <xdr:cNvPr id="4" name="テキストボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6908,9 +6661,15 @@
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキストボックス 46"/>
+        <xdr:cNvPr id="5" name="テキストボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7060,13 +6819,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図形 9" descr="enemy1"/>
+        <xdr:cNvPr id="10" name="図形 9" descr="enemy1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7098,13 +6863,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図形 10" descr="enemy2"/>
+        <xdr:cNvPr id="11" name="図形 10" descr="enemy2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7129,9 +6900,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 39"/>
+        <xdr:cNvPr id="12" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7276,9 +7053,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキストボックス 42"/>
+        <xdr:cNvPr id="13" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7423,9 +7206,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキストボックス 45"/>
+        <xdr:cNvPr id="14" name="テキストボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7568,9 +7357,15 @@
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキストボックス 46"/>
+        <xdr:cNvPr id="15" name="テキストボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7713,9 +7508,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキストボックス 39"/>
+        <xdr:cNvPr id="17" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7860,9 +7661,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキストボックス 42"/>
+        <xdr:cNvPr id="18" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8007,9 +7814,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキストボックス 39"/>
+        <xdr:cNvPr id="19" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8154,9 +7967,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキストボックス 42"/>
+        <xdr:cNvPr id="20" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8297,7 +8116,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -8306,9 +8125,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキストボックス 39"/>
+        <xdr:cNvPr id="2" name="テキストボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8453,9 +8278,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキストボックス 42"/>
+        <xdr:cNvPr id="3" name="テキストボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8600,9 +8431,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキストボックス 45"/>
+        <xdr:cNvPr id="4" name="テキストボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8745,9 +8582,15 @@
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485140" cy="434975"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキストボックス 46"/>
+        <xdr:cNvPr id="5" name="テキストボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8897,13 +8740,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図形 6" descr="item1"/>
+        <xdr:cNvPr id="7" name="図形 6" descr="item1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9180,80 +9029,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C21:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="3:5">
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C11:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C12:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25" spans="3:18">
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="22"/>
+      <c r="K12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="3:18">
-      <c r="C13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="22">
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="24" t="s">
@@ -9265,13 +9111,13 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="3:18">
-      <c r="C14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -9279,13 +9125,13 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="3:18">
-      <c r="C15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -9293,13 +9139,13 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="3:18">
-      <c r="C16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -9307,13 +9153,13 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
-      <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="3:18">
-      <c r="C17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
@@ -9321,13 +9167,13 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="3:18">
-      <c r="C18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -9335,13 +9181,13 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
-      <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="3:18">
-      <c r="C19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -9349,13 +9195,13 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
-      <c r="R19" s="23"/>
-    </row>
-    <row r="20" spans="3:18">
-      <c r="C20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
@@ -9363,13 +9209,13 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-      <c r="R20" s="23"/>
-    </row>
-    <row r="21" spans="3:18">
-      <c r="C21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -9377,13 +9223,13 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="3:18">
-      <c r="C22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -9391,13 +9237,13 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="3:18">
-      <c r="C23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -9405,13 +9251,13 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="3:18">
-      <c r="C24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -9419,13 +9265,13 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="3:18">
-      <c r="C25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -9433,61 +9279,60 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
-      <c r="R25" s="23"/>
-    </row>
-    <row r="26" ht="14.25" spans="3:18">
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="26"/>
-    </row>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25" spans="3:18">
-      <c r="C29" s="16" t="s">
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="16" t="s">
+      <c r="J29" s="22"/>
+      <c r="K29" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="29"/>
-    </row>
-    <row r="30" spans="3:18">
-      <c r="C30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="22">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="14">
         <v>1</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="28" t="s">
         <v>5</v>
       </c>
       <c r="L30" s="24"/>
@@ -9496,15 +9341,15 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-      <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="3:18">
-      <c r="C31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="22">
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14">
         <v>2</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="24"/>
@@ -9514,13 +9359,13 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="23"/>
-    </row>
-    <row r="32" spans="3:18">
-      <c r="C32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="R31" s="25"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
@@ -9528,13 +9373,13 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" spans="3:18">
-      <c r="C33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -9542,13 +9387,13 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-      <c r="R33" s="23"/>
-    </row>
-    <row r="34" spans="3:18">
-      <c r="C34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
+      <c r="R33" s="25"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -9556,13 +9401,13 @@
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
-      <c r="R34" s="23"/>
-    </row>
-    <row r="35" spans="3:18">
-      <c r="C35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -9570,13 +9415,13 @@
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
-      <c r="R35" s="23"/>
-    </row>
-    <row r="36" spans="3:18">
-      <c r="C36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -9584,13 +9429,13 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="23"/>
-    </row>
-    <row r="37" spans="3:18">
-      <c r="C37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -9598,13 +9443,13 @@
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
-      <c r="R37" s="23"/>
-    </row>
-    <row r="38" spans="3:18">
-      <c r="C38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -9612,13 +9457,13 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="23"/>
-    </row>
-    <row r="39" spans="3:18">
-      <c r="C39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -9626,13 +9471,13 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
-      <c r="R39" s="23"/>
-    </row>
-    <row r="40" spans="3:18">
-      <c r="C40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -9640,13 +9485,13 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="23"/>
-    </row>
-    <row r="41" spans="3:18">
-      <c r="C41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -9654,13 +9499,13 @@
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
-      <c r="R41" s="23"/>
-    </row>
-    <row r="42" spans="3:18">
-      <c r="C42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
+      <c r="R41" s="25"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -9668,28 +9513,29 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="23"/>
-    </row>
-    <row r="43" ht="14.25" spans="3:18">
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="26"/>
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K30:R43"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:R12"/>
@@ -9697,61 +9543,58 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="K13:R26"/>
-    <mergeCell ref="K30:R43"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C11:T60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C12:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" ht="14.25"/>
-    <row r="12" spans="3:18">
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="22"/>
+      <c r="K12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="3:18">
-      <c r="C13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="22">
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="30" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="24"/>
@@ -9760,15 +9603,15 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="3:18">
-      <c r="C14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="22">
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="24"/>
@@ -9778,15 +9621,15 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="3:18">
-      <c r="C15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22">
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14">
         <v>3</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="24"/>
@@ -9796,15 +9639,15 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="3:20">
-      <c r="C16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22">
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14">
         <v>4</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="24"/>
@@ -9814,18 +9657,18 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
-      <c r="R16" s="23"/>
-      <c r="T16" s="30" t="s">
+      <c r="R16" s="25"/>
+      <c r="T16" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
-      <c r="C17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="22">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14">
         <v>5</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="15" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="24"/>
@@ -9835,15 +9678,15 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="3:18">
-      <c r="C18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="22">
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="14">
         <v>6</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="24"/>
@@ -9853,15 +9696,15 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
-      <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="3:18">
-      <c r="C19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="22">
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14">
         <v>7</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="24"/>
@@ -9871,13 +9714,13 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
-      <c r="R19" s="23"/>
-    </row>
-    <row r="20" spans="3:18">
-      <c r="C20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
@@ -9885,13 +9728,13 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-      <c r="R20" s="23"/>
-    </row>
-    <row r="21" spans="3:18">
-      <c r="C21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -9899,13 +9742,13 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="3:18">
-      <c r="C22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -9913,13 +9756,13 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="3:18">
-      <c r="C23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -9927,13 +9770,13 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="3:18">
-      <c r="C24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -9941,13 +9784,13 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="3:18">
-      <c r="C25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -9955,61 +9798,60 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
-      <c r="R25" s="23"/>
-    </row>
-    <row r="26" ht="14.25" spans="3:18">
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="26"/>
-    </row>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25" spans="3:18">
-      <c r="C29" s="16" t="s">
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="16" t="s">
+      <c r="J29" s="22"/>
+      <c r="K29" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="29"/>
-    </row>
-    <row r="30" spans="3:18">
-      <c r="C30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="22">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="14">
         <v>1</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="29" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="24"/>
@@ -10018,15 +9860,15 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-      <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="3:18">
-      <c r="C31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="22">
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14">
         <v>2</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="24"/>
@@ -10036,13 +9878,13 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="23"/>
-    </row>
-    <row r="32" spans="3:18">
-      <c r="C32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="R31" s="25"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
@@ -10050,13 +9892,13 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" spans="3:18">
-      <c r="C33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -10064,13 +9906,13 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-      <c r="R33" s="23"/>
-    </row>
-    <row r="34" spans="3:18">
-      <c r="C34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
+      <c r="R33" s="25"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -10078,13 +9920,13 @@
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
-      <c r="R34" s="23"/>
-    </row>
-    <row r="35" spans="3:18">
-      <c r="C35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -10092,13 +9934,13 @@
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
-      <c r="R35" s="23"/>
-    </row>
-    <row r="36" spans="3:18">
-      <c r="C36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -10106,13 +9948,13 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="23"/>
-    </row>
-    <row r="37" spans="3:18">
-      <c r="C37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -10120,13 +9962,13 @@
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
-      <c r="R37" s="23"/>
-    </row>
-    <row r="38" spans="3:18">
-      <c r="C38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -10134,13 +9976,13 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="23"/>
-    </row>
-    <row r="39" spans="3:18">
-      <c r="C39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -10148,13 +9990,13 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
-      <c r="R39" s="23"/>
-    </row>
-    <row r="40" spans="3:18">
-      <c r="C40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -10162,13 +10004,13 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="23"/>
-    </row>
-    <row r="41" spans="3:18">
-      <c r="C41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -10176,13 +10018,13 @@
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
-      <c r="R41" s="23"/>
-    </row>
-    <row r="42" spans="3:18">
-      <c r="C42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
+      <c r="R41" s="25"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -10190,57 +10032,56 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="23"/>
-    </row>
-    <row r="43" ht="14.25" spans="3:18">
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="26"/>
-    </row>
-    <row r="45" ht="14.25"/>
-    <row r="46" ht="14.25" spans="3:18">
-      <c r="C46" s="16" t="s">
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C46" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="16" t="s">
+      <c r="J46" s="22"/>
+      <c r="K46" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="29"/>
-    </row>
-    <row r="47" spans="3:18">
-      <c r="C47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="28" t="s">
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="23"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="24"/>
@@ -10249,13 +10090,13 @@
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
-      <c r="R47" s="23"/>
-    </row>
-    <row r="48" spans="3:18">
-      <c r="C48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
+      <c r="R47" s="25"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
@@ -10263,13 +10104,13 @@
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
-      <c r="R48" s="23"/>
-    </row>
-    <row r="49" spans="3:18">
-      <c r="C49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
+      <c r="R48" s="25"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
@@ -10277,13 +10118,13 @@
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
-      <c r="R49" s="23"/>
-    </row>
-    <row r="50" spans="3:18">
-      <c r="C50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
+      <c r="R49" s="25"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
@@ -10291,13 +10132,13 @@
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
-      <c r="R50" s="23"/>
-    </row>
-    <row r="51" spans="3:18">
-      <c r="C51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
+      <c r="R50" s="25"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -10305,13 +10146,13 @@
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
-      <c r="R51" s="23"/>
-    </row>
-    <row r="52" spans="3:18">
-      <c r="C52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
+      <c r="R51" s="25"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -10319,13 +10160,13 @@
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
-      <c r="R52" s="23"/>
-    </row>
-    <row r="53" spans="3:18">
-      <c r="C53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
+      <c r="R52" s="25"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -10333,13 +10174,13 @@
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-      <c r="R53" s="23"/>
-    </row>
-    <row r="54" spans="3:18">
-      <c r="C54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
+      <c r="R53" s="25"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
@@ -10347,13 +10188,13 @@
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
-      <c r="R54" s="23"/>
-    </row>
-    <row r="55" spans="3:18">
-      <c r="C55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
+      <c r="R54" s="25"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
@@ -10361,13 +10202,13 @@
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="23"/>
-    </row>
-    <row r="56" spans="3:18">
-      <c r="C56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C56" s="10"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
@@ -10375,13 +10216,13 @@
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
-      <c r="R56" s="23"/>
-    </row>
-    <row r="57" spans="3:18">
-      <c r="C57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
+      <c r="R56" s="25"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C57" s="10"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
@@ -10389,13 +10230,13 @@
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
-      <c r="R57" s="23"/>
-    </row>
-    <row r="58" spans="3:18">
-      <c r="C58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
+      <c r="R57" s="25"/>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
@@ -10403,13 +10244,13 @@
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
-      <c r="R58" s="23"/>
-    </row>
-    <row r="59" spans="3:18">
-      <c r="C59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
+      <c r="R58" s="25"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
@@ -10417,343 +10258,290 @@
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
       <c r="Q59" s="24"/>
-      <c r="R59" s="23"/>
-    </row>
-    <row r="60" ht="14.25" spans="3:18">
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="26"/>
+      <c r="R59" s="25"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K47:R60"/>
+    <mergeCell ref="K13:R26"/>
+    <mergeCell ref="K30:R43"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:R29"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="K47:R60"/>
-    <mergeCell ref="K13:R26"/>
-    <mergeCell ref="K30:R43"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:18">
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8">
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:18">
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:18">
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:18">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:18">
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:18">
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:18">
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:18">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:18">
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:18">
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:18">
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:18">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:18">
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10762,581 +10550,477 @@
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="K6:R19"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+    </row>
+    <row r="23" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
+      <c r="J23" s="32"/>
+      <c r="K23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:18">
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:18">
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:18">
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:18">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:18">
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:18">
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:18">
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:18">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:18">
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:18">
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:18">
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:18">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:18">
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="3:18">
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:18">
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="3:18">
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="3:18">
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="3:18">
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="3:18">
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="3:18">
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="3:18">
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="3:18">
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="3:18">
-      <c r="C33" s="4"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="3:18">
-      <c r="C34" s="4"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="3:18">
-      <c r="C35" s="4"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="3:18">
-      <c r="C36" s="4"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="13"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K24:R37"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:R5"/>
@@ -11344,302 +11028,248 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="K23:R23"/>
     <mergeCell ref="K6:R19"/>
-    <mergeCell ref="K24:R37"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C5:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:18">
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:18">
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:18">
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:18">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:18">
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:18">
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:18">
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:18">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:18">
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:18">
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:18">
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:18">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:18">
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:18">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11648,8 +11278,9 @@
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="K6:R19"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>